--- a/data/tjbrailey_psp_ontology.xlsx
+++ b/data/tjbrailey_psp_ontology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Brailey\Dropbox\github_private\SeniorThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A9656-D86C-44A3-AC9F-00CFD022078B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9124B90-BF23-4F3F-AFB6-4D2C399779F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
+    <workbookView xWindow="14655" yWindow="750" windowWidth="14265" windowHeight="11835" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="185">
   <si>
     <t>child_0</t>
   </si>
@@ -260,9 +260,6 @@
     <t xml:space="preserve">complex consociationalism </t>
   </si>
   <si>
-    <t xml:space="preserve">characteristics of consociationalism </t>
-  </si>
-  <si>
     <t>see above</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>oversized cabinets</t>
   </si>
   <si>
-    <t>a balanced executive-legislative relationship with consensus-based decision-making</t>
-  </si>
-  <si>
     <t xml:space="preserve">separation of powers </t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>executive dominance</t>
   </si>
   <si>
-    <t>westminster-style democracy with executive dominance</t>
-  </si>
-  <si>
     <t xml:space="preserve">qog: no_ce, iaep_eccdt, iaep_ecdl, iaep_eml, iaep_epmf, iaep_evp, iaep_lcre, iaep_lego, iaep_lrit, iaep_lvp, iaep_milo, etc. </t>
   </si>
   <si>
@@ -431,9 +422,6 @@
     <t>territorial decentralization</t>
   </si>
   <si>
-    <t xml:space="preserve">idc: </t>
-  </si>
-  <si>
     <t>subnational tax authority</t>
   </si>
   <si>
@@ -570,13 +558,107 @@
   </si>
   <si>
     <t>features for conflict reduction</t>
+  </si>
+  <si>
+    <t>Lijphart, A. (1969). Consociational Democracy. World Politics, 21(2), 207–225. https://doi.org/10.2307/2009820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general consociationalism </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wolff, Stefan. 2009. ‘Complex Power-Sharing and the Centrality of Territorial Self-Governance in Contemporary Conflict Settlements’. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ethnopolitics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8(1): 27–45.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O’Leary, Brendan. 2005. ‘Debating Consociational Politics: Normative and Explanatory Arguments’. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>From Power Sharing to Democracy: Post-Conflict Institutions in Ethnically Divided Societies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, , 3–43.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">O'Leary, Brendan. (1989). The Limits to Coercive Consociationalism in Northern Ireland. Political Studies. 37. 562 - 587. 10.1111/j.1467-9248.1989.tb00289.x. </t>
+  </si>
+  <si>
+    <t>Hartzell, C., &amp; Hoddie, M. (2007). Crafting Peace: Power-Sharing Institutions and the Negotiated Settlement of Civil Wars. Penn State University Press. Retrieved from http://www.jstor.org/stable/10.5325/j.ctt7v5x0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Roeder, Philip, 2005. "Power Dividing as an Alternative to Ethnic Power Sharing." In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sustainable Peace, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ed. Philip Roeder and Donald Rothchild. Ithaca: Cornell University Press</t>
+    </r>
+  </si>
+  <si>
+    <t>Andeweg, R. B. (2000). Consociational Democracy. Annual Review of Political Science, 3(1), 509–536. doi:10.1146/annurev.polisci.3.1.509</t>
+  </si>
+  <si>
+    <t>idc: state + muni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +678,21 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -943,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2C77-0DD6-4042-9A1C-B14AA519E332}">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1004,7 +1101,9 @@
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1131,9 @@
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1056,7 +1157,9 @@
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1086,7 +1189,9 @@
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1341,8 +1446,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="3"/>
@@ -1458,7 +1562,9 @@
         <v>1</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
       <c r="G20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1480,7 +1586,9 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1502,7 +1610,9 @@
         <v>1</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1524,7 +1634,9 @@
         <v>1</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1546,7 +1658,9 @@
         <v>1</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1568,7 +1682,9 @@
         <v>0</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1590,7 +1706,9 @@
         <v>0</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1610,7 +1728,9 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1630,7 +1750,9 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1650,7 +1772,9 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1666,7 +1790,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1674,7 +1798,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1690,7 +1814,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1712,7 +1836,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1734,7 +1858,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
@@ -1754,7 +1878,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
@@ -1771,10 +1895,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -1795,10 +1919,10 @@
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
@@ -1815,19 +1939,19 @@
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -1839,10 +1963,10 @@
         <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
@@ -1859,18 +1983,18 @@
         <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="G39" s="3" t="s">
         <v>61</v>
       </c>
@@ -1887,16 +2011,18 @@
         <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1909,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>36</v>
@@ -1918,7 +2044,9 @@
         <v>1</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1931,20 +2059,20 @@
         <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="G42" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1957,16 +2085,18 @@
         <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -1979,10 +2109,10 @@
         <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -1990,7 +2120,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -2003,16 +2133,16 @@
         <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2025,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2047,10 +2177,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -2069,10 +2199,10 @@
         <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -2091,10 +2221,10 @@
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -2102,7 +2232,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2112,23 +2242,23 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2138,23 +2268,23 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2164,23 +2294,23 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2190,26 +2320,26 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2218,10 +2348,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>44</v>
@@ -2229,7 +2359,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>45</v>
@@ -2242,21 +2372,21 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -2266,21 +2396,21 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -2290,10 +2420,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>13</v>
@@ -2303,10 +2433,10 @@
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -2316,10 +2446,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>17</v>
@@ -2329,7 +2459,7 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>18</v>
@@ -2342,23 +2472,23 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -2368,23 +2498,23 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -2394,23 +2524,23 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -2420,23 +2550,23 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -2446,21 +2576,21 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -2470,21 +2600,21 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -2494,21 +2624,21 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -2518,21 +2648,21 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -2542,21 +2672,21 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -2566,21 +2696,21 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -2590,21 +2720,21 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -2614,13 +2744,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2646,13 +2776,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -2668,17 +2798,19 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="F72" t="s">
+        <v>178</v>
+      </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -2688,19 +2820,21 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="F73" t="s">
+        <v>178</v>
+      </c>
       <c r="G73" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -2710,17 +2844,19 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="F74" t="s">
+        <v>178</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -2730,17 +2866,19 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+      <c r="F75" t="s">
+        <v>178</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -2750,13 +2888,13 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -2778,13 +2916,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -2800,13 +2938,13 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -2822,17 +2960,19 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="G79" s="3" t="s">
         <v>62</v>
       </c>
@@ -2844,19 +2984,21 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="G80" s="3" t="s">
         <v>25</v>
       </c>
@@ -2878,19 +3020,21 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
       </c>
       <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -2900,19 +3044,21 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
       </c>
       <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -2922,19 +3068,21 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -2944,19 +3092,21 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
       </c>
       <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -2966,19 +3116,21 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
       </c>
       <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -2988,19 +3140,21 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="G86" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -3010,19 +3164,21 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D87" s="3">
         <v>1</v>
       </c>
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -3032,13 +3188,13 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -3054,13 +3210,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D89" s="3">
         <v>0</v>
@@ -3076,13 +3232,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
@@ -3110,5 +3266,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/tjbrailey_psp_ontology.xlsx
+++ b/data/tjbrailey_psp_ontology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Brailey\Dropbox\github_private\SeniorThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9124B90-BF23-4F3F-AFB6-4D2C399779F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A186A1-D66F-4D82-A37D-E77C847EB46E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14655" yWindow="750" windowWidth="14265" windowHeight="11835" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="184">
   <si>
     <t>child_0</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>accomodation(1)/integration(0)</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>source</t>
@@ -1038,18 +1035,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2C77-0DD6-4042-9A1C-B14AA519E332}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="24.28515625" customWidth="1"/>
+    <col min="1" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1083,26 +1080,25 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
@@ -1110,55 +1106,53 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>20</v>
@@ -1169,28 +1163,27 @@
       <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
@@ -1207,193 +1200,183 @@
       <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
@@ -1403,90 +1386,86 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="F15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1498,17 +1477,16 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1520,301 +1498,288 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" t="s">
-        <v>179</v>
-      </c>
+      <c r="E21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" t="s">
-        <v>179</v>
-      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" t="s">
-        <v>179</v>
-      </c>
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" t="s">
-        <v>179</v>
-      </c>
+      <c r="E24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="E25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="E26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="E27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="E28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="E29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1826,17 +1791,16 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1848,17 +1812,16 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
@@ -1868,17 +1831,16 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
@@ -1888,41 +1850,39 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="F35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
@@ -1932,41 +1892,39 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="G37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
@@ -1976,189 +1934,181 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="F39" s="3" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="E40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="E41" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="F42" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="E43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="F44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="F45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2170,17 +2120,16 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -2192,17 +2141,16 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -2214,547 +2162,527 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="F49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2" t="s">
-        <v>107</v>
+      <c r="E53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="E57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="E63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="E69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G70" s="3" t="s">
         <v>25</v>
       </c>
@@ -2770,19 +2698,16 @@
       <c r="K70" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -2794,135 +2719,129 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" t="s">
-        <v>178</v>
-      </c>
+      <c r="E72" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" t="s">
-        <v>178</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="E73" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" t="s">
-        <v>178</v>
-      </c>
+      <c r="E74" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" t="s">
-        <v>178</v>
-      </c>
+      <c r="E75" t="s">
+        <v>177</v>
+      </c>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -2934,17 +2853,16 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -2956,48 +2874,48 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="F79" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="F80" s="3" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>25</v>
@@ -3014,187 +2932,177 @@
       <c r="K80" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L80" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="D81" s="3">
         <v>1</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="E81" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="D82" s="3">
         <v>1</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="E82" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="D83" s="3">
         <v>1</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="E83" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="E84" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="E85" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D87" s="3">
         <v>1</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="E87" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -3206,17 +3114,16 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" s="3">
         <v>0</v>
@@ -3228,23 +3135,24 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
       </c>
       <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G90" s="3" t="s">
         <v>25</v>
       </c>
@@ -3259,9 +3167,6 @@
       </c>
       <c r="K90" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/tjbrailey_psp_ontology.xlsx
+++ b/data/tjbrailey_psp_ontology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Brailey\Dropbox\github_private\SeniorThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A186A1-D66F-4D82-A37D-E77C847EB46E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7B36E7-6B48-452E-BA64-B49133F5AAB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="750" windowWidth="14265" windowHeight="11835" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
+    <workbookView xWindow="14655" yWindow="0" windowWidth="14265" windowHeight="15600" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>see above</t>
-  </si>
-  <si>
-    <t>state recognizes multiple ethnic identities and their self-determination</t>
   </si>
   <si>
     <t xml:space="preserve">restructuring of security sector </t>
@@ -649,6 +646,9 @@
   </si>
   <si>
     <t>idc: state + muni</t>
+  </si>
+  <si>
+    <t>recognition of multiple ethnic identities</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2C77-0DD6-4042-9A1C-B14AA519E332}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>17</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>24</v>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>56</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1756,7 +1756,7 @@
         <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
@@ -1840,7 +1840,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
@@ -1856,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -1879,10 +1879,10 @@
         <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
@@ -1898,18 +1898,18 @@
         <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1921,10 +1921,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
@@ -1940,16 +1940,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>60</v>
@@ -1967,16 +1967,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1990,7 +1990,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2013,19 +2013,19 @@
         <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2038,16 +2038,16 @@
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2061,17 +2061,17 @@
         <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2084,15 +2084,15 @@
         <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2105,10 +2105,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -2147,10 +2147,10 @@
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -2168,17 +2168,17 @@
         <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2188,22 +2188,22 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2213,22 +2213,22 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2238,22 +2238,22 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2263,25 +2263,25 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -2290,17 +2290,17 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>44</v>
@@ -2313,20 +2313,20 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2336,20 +2336,20 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>12</v>
@@ -2371,10 +2371,10 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>16</v>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>17</v>
@@ -2409,22 +2409,22 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -2434,22 +2434,22 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2459,22 +2459,22 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -2484,22 +2484,22 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2509,20 +2509,20 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2532,20 +2532,20 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2555,20 +2555,20 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -2578,20 +2578,20 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2601,20 +2601,20 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2624,20 +2624,20 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2647,20 +2647,20 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -2670,13 +2670,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2701,13 +2701,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -2722,17 +2722,17 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -2743,20 +2743,20 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -2766,17 +2766,17 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2787,17 +2787,17 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -2808,13 +2808,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -2835,13 +2835,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -2856,13 +2856,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -2877,17 +2877,17 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>61</v>
@@ -2900,19 +2900,19 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>24</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="D81" s="3">
         <v>1</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="D82" s="3">
         <v>1</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -3004,19 +3004,19 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -3027,19 +3027,19 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -3050,20 +3050,20 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -3073,19 +3073,19 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87" s="3">
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -3096,13 +3096,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -3117,13 +3117,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D89" s="3">
         <v>0</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>

--- a/data/tjbrailey_psp_ontology.xlsx
+++ b/data/tjbrailey_psp_ontology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Brailey\Dropbox\github_private\SeniorThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7B36E7-6B48-452E-BA64-B49133F5AAB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90AFBDD-69B0-40EB-83E6-66E8D6C35642}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="0" windowWidth="14265" windowHeight="15600" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="166">
   <si>
     <t>child_0</t>
   </si>
@@ -284,58 +284,7 @@
     <t>cross-cutting electoral districting</t>
   </si>
   <si>
-    <t xml:space="preserve">consensual democracy </t>
-  </si>
-  <si>
-    <t>oversized cabinets</t>
-  </si>
-  <si>
     <t xml:space="preserve">separation of powers </t>
-  </si>
-  <si>
-    <t>majoritarian democracy</t>
-  </si>
-  <si>
-    <t>executive dominance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qog: no_ce, iaep_eccdt, iaep_ecdl, iaep_eml, iaep_epmf, iaep_evp, iaep_lcre, iaep_lego, iaep_lrit, iaep_lvp, iaep_milo, etc. </t>
-  </si>
-  <si>
-    <t>plurality</t>
-  </si>
-  <si>
-    <t>centrifugal democracy</t>
-  </si>
-  <si>
-    <t>elite competition</t>
-  </si>
-  <si>
-    <t>dtd: xrcomp</t>
-  </si>
-  <si>
-    <t>political instability</t>
-  </si>
-  <si>
-    <t>qog: wbgi_pve</t>
-  </si>
-  <si>
-    <t>centripetal democracy</t>
-  </si>
-  <si>
-    <t>centralized authority</t>
-  </si>
-  <si>
-    <t>broad inclusion</t>
-  </si>
-  <si>
-    <t>depoliticized democracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elite cooperation </t>
-  </si>
-  <si>
-    <t>homogeneous societal structure</t>
   </si>
   <si>
     <t>qog: fe_etfra</t>
@@ -640,9 +589,6 @@
       </rPr>
       <t>ed. Philip Roeder and Donald Rothchild. Ithaca: Cornell University Press</t>
     </r>
-  </si>
-  <si>
-    <t>Andeweg, R. B. (2000). Consociational Democracy. Annual Review of Political Science, 3(1), 509–536. doi:10.1146/annurev.polisci.3.1.509</t>
   </si>
   <si>
     <t>idc: state + muni</t>
@@ -1035,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2C77-0DD6-4042-9A1C-B14AA519E332}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1095,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1124,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>17</v>
@@ -1149,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -1180,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>24</v>
@@ -1538,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>56</v>
@@ -1561,7 +1507,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1584,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1607,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1630,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1653,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1676,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1697,7 +1643,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1718,7 +1664,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1739,7 +1685,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1756,7 +1702,7 @@
         <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1779,7 +1725,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1821,7 +1767,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
@@ -1840,7 +1786,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
@@ -1937,26 +1883,24 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>181</v>
+        <v>87</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -1964,21 +1908,23 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1987,21 +1933,23 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2010,24 +1958,26 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>181</v>
+      <c r="E42" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -2035,21 +1985,21 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -2058,20 +2008,20 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F44" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2081,18 +2031,20 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F45" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2102,19 +2054,23 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2123,19 +2079,23 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="E47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2144,19 +2104,23 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="E48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -2165,20 +2129,22 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F49" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2188,22 +2154,22 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2213,22 +2179,22 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2238,22 +2204,20 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2263,26 +2227,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2290,20 +2250,20 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2313,20 +2273,20 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2336,20 +2296,20 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2359,22 +2319,20 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2384,22 +2342,20 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2409,48 +2365,50 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -2459,23 +2417,19 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="3" t="s">
         <v>124</v>
       </c>
+      <c r="D61" s="3"/>
+      <c r="E61" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -2484,22 +2438,20 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>105</v>
+      <c r="D62" s="3"/>
+      <c r="E62" t="s">
+        <v>159</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2509,21 +2461,19 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="E63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -2532,21 +2482,19 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D64" s="3"/>
-      <c r="E64" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="E64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -2555,44 +2503,46 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -2601,21 +2551,19 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -2624,20 +2572,20 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="2" t="s">
-        <v>105</v>
+      <c r="E68" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2647,72 +2595,78 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
       </c>
-      <c r="E71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -2722,17 +2676,19 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" t="s">
-        <v>176</v>
+        <v>140</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -2743,21 +2699,21 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" t="s">
-        <v>176</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -2766,17 +2722,19 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" t="s">
-        <v>176</v>
+        <v>142</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2787,19 +2745,21 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" t="s">
-        <v>176</v>
-      </c>
-      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -2808,43 +2768,39 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="E76" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="D77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -2856,16 +2812,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -2877,295 +2833,34 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="3">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D82" s="3">
-        <v>1</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D85" s="3">
-        <v>1</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D88" s="3">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>29</v>
       </c>
     </row>

--- a/data/tjbrailey_psp_ontology.xlsx
+++ b/data/tjbrailey_psp_ontology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Brailey\Dropbox\github_private\SeniorThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90AFBDD-69B0-40EB-83E6-66E8D6C35642}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD72CE3-08C7-42CD-99CE-FA83D2F94549}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
+    <workbookView xWindow="13740" yWindow="0" windowWidth="15075" windowHeight="11835" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2C77-0DD6-4042-9A1C-B14AA519E332}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/tjbrailey_psp_ontology.xlsx
+++ b/data/tjbrailey_psp_ontology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Brailey\Dropbox\github_private\SeniorThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD72CE3-08C7-42CD-99CE-FA83D2F94549}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20790FDD-EA53-46EC-B430-2F165C9684F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="0" windowWidth="15075" windowHeight="11835" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="159">
   <si>
     <t>child_0</t>
   </si>
@@ -44,24 +44,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>variable_1</t>
-  </si>
-  <si>
-    <t>variable_2</t>
-  </si>
-  <si>
-    <t>variable_3</t>
-  </si>
-  <si>
-    <t>variable_4</t>
-  </si>
-  <si>
-    <t>variable_5</t>
-  </si>
-  <si>
-    <t>variable_6</t>
-  </si>
-  <si>
     <t>political system</t>
   </si>
   <si>
@@ -107,9 +89,6 @@
     <t>idc: auton</t>
   </si>
   <si>
-    <t>impact: terrpact</t>
-  </si>
-  <si>
     <t>dtd: auton</t>
   </si>
   <si>
@@ -119,16 +98,7 @@
     <t>pax: PpsAut, TpsAut</t>
   </si>
   <si>
-    <t>psed: tps_autonomy (402/403)</t>
-  </si>
-  <si>
     <t>coalition cabinets</t>
-  </si>
-  <si>
-    <t>impact: Political pact</t>
-  </si>
-  <si>
-    <t>psed: pps_cabinet, pps_sencabinet, pps_nsencabinet (100-105)</t>
   </si>
   <si>
     <t xml:space="preserve">bicameralism </t>
@@ -595,6 +565,15 @@
   </si>
   <si>
     <t>recognition of multiple ethnic identities</t>
+  </si>
+  <si>
+    <t>Charron, N. 2009. ‘Government Quality and Vertical Power-Sharing in Fractionalized States’. Publius: The Journal of Federalism 39(4): 585–605.</t>
+  </si>
+  <si>
+    <t>Wolff, S. (2008). "Chapter 13. Power-sharing and the Vertical Layering of Authority: a Review of Current Practices". In Chapter 13. Power-sharing and the Vertical Layering of Authority: a Review of Current Practices. Leiden, The Netherlands: Brill | Nijhoff. doi: https://doi.org/10.1163/ej.9789004164826.i-794.81</t>
+  </si>
+  <si>
+    <t>variable</t>
   </si>
 </sst>
 </file>
@@ -983,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2C77-0DD6-4042-9A1C-B14AA519E332}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1009,48 +988,38 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1058,22 +1027,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1083,113 +1052,104 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1199,26 +1159,24 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1226,20 +1184,20 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1249,18 +1207,18 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1270,18 +1228,18 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1291,23 +1249,23 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1316,13 +1274,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
@@ -1335,26 +1293,26 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1362,18 +1320,18 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1382,20 +1340,20 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1405,13 +1363,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1426,13 +1384,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1447,23 +1405,23 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1472,22 +1430,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1497,17 +1455,17 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1518,19 +1476,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1541,19 +1499,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1564,19 +1522,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1587,19 +1545,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1610,19 +1568,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1633,17 +1591,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1654,17 +1612,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1675,17 +1633,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1696,20 +1654,20 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1719,13 +1677,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1740,13 +1698,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1761,13 +1719,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
@@ -1780,13 +1738,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
@@ -1799,20 +1757,20 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1822,13 +1780,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
@@ -1841,21 +1799,21 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1864,13 +1822,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
@@ -1883,22 +1841,22 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1908,22 +1866,22 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1933,22 +1891,22 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -1958,25 +1916,25 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1985,20 +1943,20 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -2008,20 +1966,20 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2031,20 +1989,20 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2054,22 +2012,22 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -2079,22 +2037,22 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2104,22 +2062,22 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2129,22 +2087,22 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2154,22 +2112,22 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2179,22 +2137,22 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2204,20 +2162,20 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2227,20 +2185,20 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2250,20 +2208,20 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2273,20 +2231,20 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2296,20 +2254,20 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2319,20 +2277,20 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2342,20 +2300,20 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2365,49 +2323,49 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="F59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
-      <c r="E60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2417,17 +2375,17 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -2438,20 +2396,20 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2461,17 +2419,17 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -2482,17 +2440,17 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2503,26 +2461,28 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="F65" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -2530,18 +2490,20 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2551,18 +2513,20 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
       </c>
-      <c r="E67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2572,20 +2536,20 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2595,54 +2559,50 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -2653,19 +2613,19 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -2676,19 +2636,19 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -2699,19 +2659,19 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -2722,19 +2682,19 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2745,20 +2705,20 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -2768,19 +2728,19 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -2791,13 +2751,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D77" s="3">
         <v>0</v>
@@ -2812,13 +2772,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
@@ -2833,36 +2793,32 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/tjbrailey_psp_ontology.xlsx
+++ b/data/tjbrailey_psp_ontology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Brailey\Dropbox\github_private\SeniorThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20790FDD-EA53-46EC-B430-2F165C9684F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450A0061-658E-4D60-A985-EDE4A1B9859F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="158">
   <si>
     <t>child_0</t>
   </si>
@@ -38,9 +38,6 @@
     <t>child_1</t>
   </si>
   <si>
-    <t>accomodation(1)/integration(0)</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t xml:space="preserve">complex consociationalism </t>
   </si>
   <si>
-    <t>see above</t>
-  </si>
-  <si>
     <t xml:space="preserve">restructuring of security sector </t>
   </si>
   <si>
@@ -477,58 +471,6 @@
   </si>
   <si>
     <t xml:space="preserve">general consociationalism </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Wolff, Stefan. 2009. ‘Complex Power-Sharing and the Centrality of Territorial Self-Governance in Contemporary Conflict Settlements’. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ethnopolitics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 8(1): 27–45.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O’Leary, Brendan. 2005. ‘Debating Consociational Politics: Normative and Explanatory Arguments’. In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>From Power Sharing to Democracy: Post-Conflict Institutions in Ethnically Divided Societies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, , 3–43.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">O'Leary, Brendan. (1989). The Limits to Coercive Consociationalism in Northern Ireland. Political Studies. 37. 562 - 587. 10.1111/j.1467-9248.1989.tb00289.x. </t>
@@ -575,12 +517,63 @@
   <si>
     <t>variable</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O’Leary, Brendan. 2005. ‘Debating Consociational Politics: Normative and Explanatory Arguments’. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>From Power Sharing to Democracy: Post-Conflict Institutions in Ethnically Divided Societies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, , 3–43.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wolff, Stefan. 2009. ‘Complex Power-Sharing and the Centrality of Territorial Self-Governance in Contemporary Conflict Settlements’. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ethnopolitics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 8(1): 27–45.</t>
+    </r>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,16 +600,21 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -641,11 +639,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,18 +960,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2C77-0DD6-4042-9A1C-B14AA519E332}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="24.28515625" customWidth="1"/>
+    <col min="1" max="10" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,38 +979,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
@@ -1018,53 +1015,47 @@
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -1075,1293 +1066,1211 @@
       <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s">
-        <v>150</v>
+      <c r="D21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
+        <v>53</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>150</v>
+        <v>54</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>150</v>
+      <c r="D24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
+      <c r="D25" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="E27" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="E28" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="E29" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="E40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="E41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="E42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="E44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="E45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="E46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="E48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="E49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="E50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="E51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="E52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="E53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="E54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="E55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="E56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="E57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="E58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="E59" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>157</v>
@@ -2371,109 +2280,110 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" t="s">
-        <v>149</v>
+        <v>112</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" t="s">
-        <v>149</v>
+        <v>115</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>26</v>
@@ -2481,344 +2391,323 @@
       <c r="G65" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1</v>
+      <c r="D66" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="E68" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1</v>
+      <c r="D69" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="3">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1</v>
+      <c r="D73" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D75" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="E75" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="3">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="3">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" s="3">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J79" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K79" s="3"/>
+      <c r="J79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/tjbrailey_psp_ontology.xlsx
+++ b/data/tjbrailey_psp_ontology.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Brailey\Dropbox\github_private\SeniorThesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbrai\Dropbox\github_private\SeniorThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450A0061-658E-4D60-A985-EDE4A1B9859F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F850A8-D0B0-4946-9A11-9AFCD8EB4A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="124">
   <si>
     <t>child_0</t>
   </si>
@@ -50,126 +51,48 @@
     <t>grand coalition</t>
   </si>
   <si>
-    <t>dtd: Coalition, coalition2, coalitiongov</t>
-  </si>
-  <si>
-    <t>idc: gcman, gcimp</t>
-  </si>
-  <si>
-    <t>pax: PpsEx</t>
-  </si>
-  <si>
     <t>mutual veto</t>
   </si>
   <si>
-    <t>idc: mveto</t>
-  </si>
-  <si>
     <t>proportionality</t>
   </si>
   <si>
-    <t>dtd: proportional, prDPI, roseprop</t>
-  </si>
-  <si>
-    <t>dpi: SENSYS</t>
-  </si>
-  <si>
-    <t>pax: PpsOro, PpsOthPr</t>
-  </si>
-  <si>
-    <t>qog: dpi_housesys, dpi_pr, dpi_sensys</t>
-  </si>
-  <si>
     <t>segmental autonomy</t>
   </si>
   <si>
-    <t>idc: auton</t>
-  </si>
-  <si>
-    <t>dtd: auton</t>
-  </si>
-  <si>
-    <t>dpi: auton</t>
-  </si>
-  <si>
-    <t>pax: PpsAut, TpsAut</t>
-  </si>
-  <si>
     <t>coalition cabinets</t>
   </si>
   <si>
     <t xml:space="preserve">bicameralism </t>
   </si>
   <si>
-    <t>qog: jw_bicameral</t>
-  </si>
-  <si>
     <t>proportional representation</t>
   </si>
   <si>
-    <t>dpi: PR</t>
-  </si>
-  <si>
-    <t>psed: other_proprep (500/501)</t>
-  </si>
-  <si>
-    <t>qog: dpi_pr</t>
-  </si>
-  <si>
     <t>organized interest groups</t>
   </si>
   <si>
-    <t>qog: bti_ig</t>
-  </si>
-  <si>
     <t>rigid constitution</t>
   </si>
   <si>
-    <t>dtd: Const</t>
-  </si>
-  <si>
     <t>judicial review</t>
   </si>
   <si>
-    <t>idc: jrevman</t>
-  </si>
-  <si>
     <t>direct democracy</t>
   </si>
   <si>
-    <t>qog: vdem_partipdem</t>
-  </si>
-  <si>
-    <t>dtd: VANstand</t>
-  </si>
-  <si>
     <t>neutral head of state</t>
   </si>
   <si>
     <t>referendums</t>
   </si>
   <si>
-    <t>dpi: eiec</t>
-  </si>
-  <si>
-    <t>pax: StRef</t>
-  </si>
-  <si>
-    <t>qog: iaep_nr</t>
-  </si>
-  <si>
     <t>independent central bank</t>
   </si>
   <si>
-    <t>pax: CenBan</t>
-  </si>
-  <si>
     <t>balance of power</t>
   </si>
   <si>
-    <t>qog: bti_sop</t>
-  </si>
-  <si>
     <t>government leader as primus inter pares</t>
   </si>
   <si>
@@ -179,12 +102,6 @@
     <t>decentralized/federal government</t>
   </si>
   <si>
-    <t>dtd: Admin</t>
-  </si>
-  <si>
-    <t>qog: gtm_unit</t>
-  </si>
-  <si>
     <t xml:space="preserve">corporate consociationalism </t>
   </si>
   <si>
@@ -239,21 +156,12 @@
     <t>mixed electoral system</t>
   </si>
   <si>
-    <t>dtd: mixed</t>
-  </si>
-  <si>
-    <t>qog: gol_est, gol_mt, iaep_es, no_ef</t>
-  </si>
-  <si>
     <t>cross-cutting electoral districting</t>
   </si>
   <si>
     <t xml:space="preserve">separation of powers </t>
   </si>
   <si>
-    <t>qog: fe_etfra</t>
-  </si>
-  <si>
     <t>power-sharing arrangements</t>
   </si>
   <si>
@@ -263,102 +171,51 @@
     <t>Strøm, K. W., Gates, S., Graham, B. A. T., &amp; Strand, H. (2017). Inclusion, dispersion, and constraint: powersharing in the world’s states, 1975–2010. British Journal of Political Science, 47(1), 165–185. https://doi.org/10.1017/S0007123415000174</t>
   </si>
   <si>
-    <t>idc: relconstd</t>
-  </si>
-  <si>
     <t>freedom from practice</t>
   </si>
   <si>
-    <t>idc: relconstp</t>
-  </si>
-  <si>
     <t>military legislator ban</t>
   </si>
   <si>
-    <t>idc: milleg</t>
-  </si>
-  <si>
     <t>ethnic party ban</t>
   </si>
   <si>
-    <t>qog: iaep_ebbp</t>
-  </si>
-  <si>
-    <t>idc: partynoethnic</t>
-  </si>
-  <si>
     <t>judicial tenure</t>
   </si>
   <si>
-    <t>idc: jtenure</t>
-  </si>
-  <si>
     <t xml:space="preserve">judicial constitution </t>
   </si>
   <si>
-    <t>idc: jconst</t>
-  </si>
-  <si>
-    <t>idc: gcman, gcimp, gcseats1/2/3</t>
-  </si>
-  <si>
     <t>unity government</t>
   </si>
   <si>
-    <t>idc: unity</t>
-  </si>
-  <si>
     <t xml:space="preserve">reserved executive positions </t>
   </si>
   <si>
-    <t>idc: resman</t>
-  </si>
-  <si>
     <t>reserved seats</t>
   </si>
   <si>
-    <t>idc: resseats, resseats2, resseatsimp</t>
-  </si>
-  <si>
     <t>mandated military inclusiveness</t>
   </si>
   <si>
-    <t>idc: miman</t>
-  </si>
-  <si>
     <t>territorial decentralization</t>
   </si>
   <si>
     <t>subnational tax authority</t>
   </si>
   <si>
-    <t>idc: subtax</t>
-  </si>
-  <si>
     <t>subnational education authority</t>
   </si>
   <si>
-    <t>idc: subed</t>
-  </si>
-  <si>
     <t>subnational police authority</t>
   </si>
   <si>
-    <t>idc: subpolice</t>
-  </si>
-  <si>
     <t xml:space="preserve">state/provincial executive elections </t>
   </si>
   <si>
-    <t>idc:  state</t>
-  </si>
-  <si>
     <t xml:space="preserve">state/provincial legislative elections </t>
   </si>
   <si>
-    <t>idc: state</t>
-  </si>
-  <si>
     <t>constituency alignment</t>
   </si>
   <si>
@@ -426,9 +283,6 @@
   </si>
   <si>
     <t>human rights bills</t>
-  </si>
-  <si>
-    <t>qog: ccp_hr, ffp_hr, iiag_phr</t>
   </si>
   <si>
     <t>partition de jure</t>
@@ -503,9 +357,6 @@
     </r>
   </si>
   <si>
-    <t>idc: state + muni</t>
-  </si>
-  <si>
     <t>recognition of multiple ethnic identities</t>
   </si>
   <si>
@@ -513,9 +364,6 @@
   </si>
   <si>
     <t>Wolff, S. (2008). "Chapter 13. Power-sharing and the Vertical Layering of Authority: a Review of Current Practices". In Chapter 13. Power-sharing and the Vertical Layering of Authority: a Review of Current Practices. Leiden, The Netherlands: Brill | Nijhoff. doi: https://doi.org/10.1163/ej.9789004164826.i-794.81</t>
-  </si>
-  <si>
-    <t>variable</t>
   </si>
   <si>
     <r>
@@ -566,14 +414,66 @@
     </r>
   </si>
   <si>
-    <t>NA</t>
+    <t>negotiated settlements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berg, Eiki, and Guy Ben-Porat. 2008. ‘Introduction: Partition vs. Power-Sharing?: Introduction’. Nations and Nationalism 14(1): 29–37.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consociationalism </t>
+  </si>
+  <si>
+    <t>corporate consociationalism</t>
+  </si>
+  <si>
+    <t>provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concept </t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>Berg, Eiki, and Guy Ben-Porat. (2008).</t>
+  </si>
+  <si>
+    <t>Hartzell, C., &amp; Hoddie, M. (2007).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strøm, K. W., Gates, S., Graham, B. A. T., &amp; Strand, H. (2017). </t>
+  </si>
+  <si>
+    <t>Lijphart, A. (1969).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O’Leary, Brendan. (2005). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolff, Stefan. (2009). </t>
+  </si>
+  <si>
+    <t>Charron, N. (2009).</t>
+  </si>
+  <si>
+    <t>territorial power-sharing</t>
+  </si>
+  <si>
+    <t>dispersive power-sharing</t>
+  </si>
+  <si>
+    <t>complex power-sharing</t>
+  </si>
+  <si>
+    <t>vertical power-sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +518,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -639,13 +547,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,18 +880,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2C77-0DD6-4042-9A1C-B14AA519E332}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="10" width="24.28515625" customWidth="1"/>
+    <col min="1" max="3" width="24.29296875" customWidth="1"/>
+    <col min="4" max="4" width="24.29296875" style="8" customWidth="1"/>
+    <col min="5" max="10" width="24.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,21 +899,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="51.35" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1003,23 +921,17 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="51.35" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1027,21 +939,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="51.35" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1049,27 +959,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="51.35" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1077,27 +979,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1105,19 +999,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1125,19 +1017,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1145,21 +1035,17 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1167,19 +1053,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1187,19 +1071,17 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1207,19 +1089,17 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1227,21 +1107,17 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1249,19 +1125,17 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1269,23 +1143,17 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1293,19 +1161,17 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1313,19 +1179,17 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1333,19 +1197,17 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1353,19 +1215,17 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1373,1344 +1233,1810 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="D46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="64" x14ac:dyDescent="0.5">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="140" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="102" x14ac:dyDescent="0.5">
       <c r="A72" s="2" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A74" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" ht="76.7" x14ac:dyDescent="0.5">
+      <c r="A80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9ED45C-9EA4-41A1-9D1E-2F0E66E277EF}">
+  <dimension ref="A1:D91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="28.41015625" customWidth="1"/>
+    <col min="3" max="3" width="55.05859375" customWidth="1"/>
+    <col min="4" max="4" width="54.5859375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C83" s="8"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/tjbrailey_psp_ontology.xlsx
+++ b/data/tjbrailey_psp_ontology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbrai\Dropbox\github_private\SeniorThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F850A8-D0B0-4946-9A11-9AFCD8EB4A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F9E200-7571-4E05-A227-FEE6C4C7965B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="128">
   <si>
     <t>child_0</t>
   </si>
@@ -467,6 +467,18 @@
   </si>
   <si>
     <t>vertical power-sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethnofederalism </t>
+  </si>
+  <si>
+    <t>Roeder, Philip G. (2009).</t>
+  </si>
+  <si>
+    <t>ethnofederalism</t>
+  </si>
+  <si>
+    <t>Roeder, Philip G. 2009. ‘Ethnofederalism and the Mismanagement of Conflicting Nationalisms’. Regional &amp; Federal Studies 19(2): 203–19.</t>
   </si>
 </sst>
 </file>
@@ -547,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -566,6 +578,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,9 +895,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2C77-0DD6-4042-9A1C-B14AA519E332}">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -2445,6 +2462,23 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
+    <row r="81" spans="1:4" ht="64" x14ac:dyDescent="0.5">
+      <c r="A81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D82" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2453,10 +2487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9ED45C-9EA4-41A1-9D1E-2F0E66E277EF}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2483,22 +2517,21 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -2506,11 +2539,11 @@
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>115</v>
+      <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -2519,10 +2552,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -2531,10 +2564,10 @@
         <v>74</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -2543,10 +2576,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -2555,23 +2588,29 @@
         <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
@@ -2626,7 +2665,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="2"/>
@@ -2656,7 +2695,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="2"/>
@@ -2740,7 +2779,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="2"/>
@@ -2860,7 +2899,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="2"/>
@@ -2872,7 +2911,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="2"/>
@@ -2896,7 +2935,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" s="2"/>
@@ -2988,52 +3027,58 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C81" s="8"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A85" s="3"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A87" s="3"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B87" s="2"/>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A88" s="3"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A89" s="3"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="6"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A90" s="3"/>
       <c r="B90" s="7"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A91" s="3"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="5"/>
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/tjbrailey_psp_ontology.xlsx
+++ b/data/tjbrailey_psp_ontology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbrai\Dropbox\github_private\SeniorThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F9E200-7571-4E05-A227-FEE6C4C7965B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B39284D-5A47-41E9-AC91-AB8375881327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{5F6FE1F0-E09E-4F56-AA05-9EA20A06C7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -448,9 +443,6 @@
     <t>Lijphart, A. (1969).</t>
   </si>
   <si>
-    <t xml:space="preserve">O’Leary, Brendan. (2005). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Wolff, Stefan. (2009). </t>
   </si>
   <si>
@@ -479,6 +471,9 @@
   </si>
   <si>
     <t>Roeder, Philip G. 2009. ‘Ethnofederalism and the Mismanagement of Conflicting Nationalisms’. Regional &amp; Federal Studies 19(2): 203–19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O'Leary, Brendan. (2005). </t>
   </si>
 </sst>
 </file>
@@ -897,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD2C77-0DD6-4042-9A1C-B14AA519E332}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
@@ -2467,13 +2462,13 @@
         <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.5">
@@ -2489,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9ED45C-9EA4-41A1-9D1E-2F0E66E277EF}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2517,10 +2512,10 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
@@ -2540,7 +2535,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>114</v>
@@ -2552,7 +2547,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>115</v>
@@ -2564,10 +2559,10 @@
         <v>74</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -2576,10 +2571,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -2603,7 +2598,7 @@
         <v>109</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D9" s="5"/>
     </row>
